--- a/Team-Data/2008-09/4-9-2008-09.xlsx
+++ b/Team-Data/2008-09/4-9-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -777,10 +844,10 @@
         <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -866,28 +933,28 @@
         <v>37.5</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
         <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
@@ -896,10 +963,10 @@
         <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.7</v>
@@ -908,25 +975,25 @@
         <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA3" t="n">
         <v>22.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
         <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -959,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -974,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -995,10 +1062,10 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1232,7 @@
         <v>27</v>
       </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -1227,10 +1294,10 @@
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K5" t="n">
         <v>0.456</v>
@@ -1239,22 +1306,22 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.797</v>
+        <v>0.794</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
         <v>30.4</v>
@@ -1266,7 +1333,7 @@
         <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1281,13 +1348,13 @@
         <v>20.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1317,16 +1384,16 @@
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
         <v>6</v>
       </c>
-      <c r="AO5" t="n">
-        <v>7</v>
-      </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1338,13 +1405,13 @@
         <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU5" t="n">
         <v>14</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -1394,61 +1461,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" t="n">
         <v>63</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.467</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.39</v>
+        <v>0.388</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T6" t="n">
         <v>42.2</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1457,22 +1524,22 @@
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1496,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
@@ -1505,13 +1572,13 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>19</v>
@@ -1532,7 +1599,7 @@
         <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
@@ -1541,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
@@ -1708,13 +1775,13 @@
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>15</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="n">
         <v>53</v>
       </c>
       <c r="F8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.663</v>
+        <v>0.671</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1788,25 +1855,25 @@
         <v>17.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O8" t="n">
         <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
         <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T8" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U8" t="n">
         <v>22.3</v>
@@ -1824,16 +1891,16 @@
         <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AB8" t="n">
         <v>104.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1860,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
@@ -1911,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2097,7 @@
         <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2066,7 +2133,7 @@
         <v>18</v>
       </c>
       <c r="AT9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>15</v>
@@ -2251,10 +2318,10 @@
         <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
         <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>0.646</v>
+        <v>0.641</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J11" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M11" t="n">
         <v>20.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
       <c r="O11" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P11" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q11" t="n">
         <v>0.803</v>
@@ -2352,7 +2419,7 @@
         <v>32.5</v>
       </c>
       <c r="T11" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U11" t="n">
         <v>20.3</v>
@@ -2364,46 +2431,46 @@
         <v>6.7</v>
       </c>
       <c r="X11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y11" t="n">
         <v>5.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
         <v>6</v>
@@ -2415,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2427,7 +2494,7 @@
         <v>22</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>4</v>
@@ -2451,13 +2518,13 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2624,7 +2691,7 @@
         <v>24</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2633,7 +2700,7 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -2758,10 +2825,10 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>10</v>
@@ -2770,13 +2837,13 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2791,7 +2858,7 @@
         <v>15</v>
       </c>
       <c r="AS13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -2868,37 +2935,37 @@
         <v>40.3</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.358</v>
+        <v>0.362</v>
       </c>
       <c r="O14" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="P14" t="n">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="Q14" t="n">
         <v>0.768</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
         <v>31.6</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
         <v>23.2</v>
@@ -2910,22 +2977,22 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
         <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.1</v>
+        <v>106.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
         <v>7</v>
@@ -2955,16 +3022,16 @@
         <v>16</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
         <v>10</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>8</v>
       </c>
       <c r="AQ14" t="n">
         <v>16</v>
@@ -2973,13 +3040,13 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>11</v>
@@ -2988,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
@@ -2997,7 +3064,7 @@
         <v>12</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3198,7 @@
         <v>29</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,16 +3207,16 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="n">
-        <v>0.41</v>
+        <v>0.405</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,40 +3484,40 @@
         <v>82.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L17" t="n">
         <v>6.2</v>
       </c>
       <c r="M17" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N17" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
         <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="U17" t="n">
         <v>21.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
         <v>7.4</v>
@@ -3465,28 +3532,28 @@
         <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
@@ -3507,19 +3574,19 @@
         <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
       </c>
       <c r="AR17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
         <v>20</v>
@@ -3528,10 +3595,10 @@
         <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,7 +3735,7 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>20</v>
@@ -3683,7 +3750,7 @@
         <v>19</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN18" t="n">
         <v>24</v>
@@ -3695,7 +3762,7 @@
         <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3710,7 +3777,7 @@
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -3862,7 +3929,7 @@
         <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>3</v>
@@ -3907,10 +3974,10 @@
         <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4114,7 @@
         <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-3</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4214,7 +4281,7 @@
         <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
         <v>25</v>
@@ -4259,7 +4326,7 @@
         <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>22</v>
       </c>
       <c r="AZ21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -4417,10 +4484,10 @@
         <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>9</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4636,7 @@
         <v>7</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>26</v>
@@ -4599,7 +4666,7 @@
         <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4623,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" t="n">
         <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>0.513</v>
+        <v>0.519</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,28 +4755,28 @@
         <v>36.6</v>
       </c>
       <c r="J24" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L24" t="n">
         <v>4.2</v>
       </c>
       <c r="M24" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.319</v>
+        <v>0.316</v>
       </c>
       <c r="O24" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P24" t="n">
         <v>26.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R24" t="n">
         <v>12.6</v>
@@ -4718,7 +4785,7 @@
         <v>28.7</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U24" t="n">
         <v>20.2</v>
@@ -4736,7 +4803,7 @@
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA24" t="n">
         <v>21.6</v>
@@ -4745,16 +4812,16 @@
         <v>97.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
@@ -4769,7 +4836,7 @@
         <v>19</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4793,16 +4860,16 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU24" t="n">
         <v>22</v>
       </c>
       <c r="AV24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
@@ -4960,7 +5027,7 @@
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" t="n">
         <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.649</v>
+        <v>0.641</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
@@ -5064,16 +5131,16 @@
         <v>18.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
@@ -5082,7 +5149,7 @@
         <v>28.4</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
         <v>20.3</v>
@@ -5097,28 +5164,28 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
         <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
         <v>6</v>
@@ -5145,13 +5212,13 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>17</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5169,7 +5236,7 @@
         <v>7</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
         <v>13</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -5216,22 +5283,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" t="n">
-        <v>0.205</v>
+        <v>0.208</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J27" t="n">
         <v>81.40000000000001</v>
@@ -5240,22 +5307,22 @@
         <v>0.449</v>
       </c>
       <c r="L27" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M27" t="n">
         <v>19.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O27" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P27" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="R27" t="n">
         <v>10.1</v>
@@ -5282,25 +5349,25 @@
         <v>5.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB27" t="n">
         <v>101.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.6</v>
+        <v>-8.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
       </c>
       <c r="AF27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG27" t="n">
         <v>30</v>
@@ -5339,7 +5406,7 @@
         <v>25</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
         <v>29</v>
@@ -5351,7 +5418,7 @@
         <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -5479,28 +5546,28 @@
         <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5758,7 @@
         <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
         <v>26</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5919,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6061,7 +6128,7 @@
         <v>20</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6088,7 +6155,7 @@
         <v>23</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-9-2008-09</t>
+          <t>2009-04-09</t>
         </is>
       </c>
     </row>
